--- a/sange.xlsx
+++ b/sange.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeterUlf/Documents/peujatkea/kea/07/forsøg med excel tema 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05DD841-F0EE-A24A-85BD-5BC588947C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE969DC-E3A6-3B4C-B892-AE32076BD319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="3260" windowWidth="27440" windowHeight="16240" xr2:uid="{C6BB3EE2-A152-DC4C-A20F-7C1FBB382EA9}"/>
   </bookViews>
   <sheets>
     <sheet name="sange" sheetId="1" r:id="rId1"/>
-    <sheet name="noget andetHer " sheetId="2" r:id="rId2"/>
+    <sheet name="nogetAndetHer " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -528,7 +528,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
